--- a/biology/Médecine/Verre_ionomère/Verre_ionomère.xlsx
+++ b/biology/Médecine/Verre_ionomère/Verre_ionomère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verre_ionom%C3%A8re</t>
+          <t>Verre_ionomère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le verre ionomère est un matériau. Il est surtout utilisé en médecine bucco-dentaire. Il peut se présenter sous différentes formes : la plus fréquente est un liquide et une poudre à mélanger en proportions précises.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Verre_ionom%C3%A8re</t>
+          <t>Verre_ionomère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il en existe différents types :
-verre ionomère renforcé à la résine[1] ;
-ciment au verre ionomère[1]. Il est utilisé comme ciment de scellement notamment pour les couronnes tout céramique. Il présente de bonnes propriétés esthétiques par rapport à d'autres matériaux de scellement plutôt opaques.</t>
+verre ionomère renforcé à la résine ;
+ciment au verre ionomère. Il est utilisé comme ciment de scellement notamment pour les couronnes tout céramique. Il présente de bonnes propriétés esthétiques par rapport à d'autres matériaux de scellement plutôt opaques.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Verre_ionom%C3%A8re</t>
+          <t>Verre_ionomère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est utilisé en dentisterie, notamment :
 en odontologie conservatrice, pour obturer des cavités à la suite de caries, en alternative des composites ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Verre_ionom%C3%A8re</t>
+          <t>Verre_ionomère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>propriétés intrinsèques d'adhésion à la dentine ;
 relargage de fluor ;
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Verre_ionom%C3%A8re</t>
+          <t>Verre_ionomère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Inconvénients</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>résistance limitée.
 esthétique médiocre.
